--- a/images/tableur_regression_logistique.xlsx
+++ b/images/tableur_regression_logistique.xlsx
@@ -95,38 +95,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -136,15 +105,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>saison</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>exemples</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="31750" cap="rnd">
@@ -169,6 +130,7 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
+            <c:name>hypothèse</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -184,10 +146,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$2:$A$9</c:f>
+              <c:f>Feuil1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -211,16 +173,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$9</c:f>
+              <c:f>Feuil1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -243,6 +211,12 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -258,11 +232,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2113293104"/>
-        <c:axId val="2118833600"/>
+        <c:axId val="2129808400"/>
+        <c:axId val="-2055097472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2113293104"/>
+        <c:axId val="2129808400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -304,7 +278,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -319,12 +293,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118833600"/>
+        <c:crossAx val="-2055097472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2118833600"/>
+        <c:axId val="-2055097472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -366,7 +340,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -381,7 +355,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2113293104"/>
+        <c:crossAx val="2129808400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -393,6 +367,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1284,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1368,6 +1374,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
